--- a/va_facility_data_2025-02-20/Payson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Payson%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Payson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Payson%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5e54eede5a164e21883debaee9ee08ed"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R887713bc7a3e45c09bf44769f5a9669e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbba6dbd80aef41618c1a9a984ba21406"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb94a883e59dc45588c513863a4484898"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R240450ade4a846bfb38373ca7999c145"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R059a0b46f7e548648baa42914e047a01"/>
   </x:sheets>
 </x:workbook>
 </file>
